--- a/public/baocao7.xlsx
+++ b/public/baocao7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>STT</t>
   </si>
@@ -38,30 +38,15 @@
     <t>Mã code</t>
   </si>
   <si>
-    <t>Cửa HÀng VLXD ÚT Danh</t>
-  </si>
-  <si>
-    <t>QL53 ẤP Sơn Lạng x, Long Sơn, H, Cầu Giang TP Trà Vinh, Huyện Cầu Ngang, Trà Vinh</t>
-  </si>
-  <si>
-    <t>0966912949</t>
+    <t>Đại Lý Trường Boss</t>
+  </si>
+  <si>
+    <t>aa, Bình Tân, Hồ Chí Minh</t>
   </si>
   <si>
     <t>Bếp âm Civina CV-818</t>
   </si>
   <si>
-    <t>18-12-2021</t>
-  </si>
-  <si>
-    <t>21032436c0fcde18</t>
-  </si>
-  <si>
-    <t>Đại Lý Trường Boss</t>
-  </si>
-  <si>
-    <t>aa, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>06-10-2022</t>
   </si>
   <si>
@@ -71,250 +56,892 @@
     <t xml:space="preserve">, , </t>
   </si>
   <si>
-    <t>27-04-2021</t>
-  </si>
-  <si>
-    <t>210324c7c4a3449a</t>
-  </si>
-  <si>
-    <t>08-04-2021</t>
-  </si>
-  <si>
-    <t>2103243db20243a0</t>
-  </si>
-  <si>
-    <t>210324820fdc279f</t>
-  </si>
-  <si>
-    <t>Bếp âm Civina CV-828</t>
-  </si>
-  <si>
-    <t>210324dd532d241c</t>
-  </si>
-  <si>
-    <t>Vlxd Khánh Đoan Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>06 Phạm Văn Đồng, Bình Sơn, Châu Ổ, Quảng Ngãi, Bình Tân, Hồ Chí Minh</t>
+    <t>23-09-2022</t>
+  </si>
+  <si>
+    <t>2104089c5d9cf0fe</t>
+  </si>
+  <si>
+    <t>18-09-2022</t>
+  </si>
+  <si>
+    <t>2104085efc0f8f29</t>
+  </si>
+  <si>
+    <t>Cửa hàng Đại Gia Long</t>
+  </si>
+  <si>
+    <t>315 Mã Lò, Bình Tân, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0933.171.168</t>
+  </si>
+  <si>
+    <t>Bếp âm Civina CV-888</t>
+  </si>
+  <si>
+    <t>10-09-2022</t>
+  </si>
+  <si>
+    <t>210324d2fc7dd548</t>
+  </si>
+  <si>
+    <t>Cửa hàng Thanh Bình Nhơn Trạch (Huyền)</t>
+  </si>
+  <si>
+    <t>ấp Bình Phú, Xã Long Tân, Huyện Nhơn Trạch, ĐN, Gia Lâm, Hà Nội</t>
+  </si>
+  <si>
+    <t>0907.092.440</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9979</t>
+  </si>
+  <si>
+    <t>2103242b2a849484</t>
+  </si>
+  <si>
+    <t>CTY KIM THÀNH PHÁT</t>
+  </si>
+  <si>
+    <t>, Phú Nhuận, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0919401840</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại EI-6226</t>
+  </si>
+  <si>
+    <t>14-07-2022</t>
+  </si>
+  <si>
+    <t>21032699fb92808c</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại CV-676</t>
+  </si>
+  <si>
+    <t>2104086d9805cd74</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-626</t>
+  </si>
+  <si>
+    <t>210408eb51cad195</t>
+  </si>
+  <si>
+    <t>2104083f227b15b2</t>
+  </si>
+  <si>
+    <t>21040822aeb40e4a</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-879</t>
+  </si>
+  <si>
+    <t>2104088d6c326dcf</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại EI-6206</t>
+  </si>
+  <si>
+    <t>210408e8c5b7ef5f</t>
+  </si>
+  <si>
+    <t>2104089847c0bccb</t>
+  </si>
+  <si>
+    <t>21040875ef401738</t>
+  </si>
+  <si>
+    <t>2104080b3969f1c2</t>
+  </si>
+  <si>
+    <t>210408972f189878</t>
+  </si>
+  <si>
+    <t>2104084d98d10b43</t>
+  </si>
+  <si>
+    <t>210408047314054a</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại IE-2156</t>
+  </si>
+  <si>
+    <t>210408fd81bd78ef</t>
+  </si>
+  <si>
+    <t>2104086ee2ee63c5</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8870S</t>
+  </si>
+  <si>
+    <t>210408f98eadc404</t>
+  </si>
+  <si>
+    <t>21040821d89affd4</t>
+  </si>
+  <si>
+    <t>210408e1a24d496a</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9919</t>
+  </si>
+  <si>
+    <t>21040821aa3c4dbf</t>
+  </si>
+  <si>
+    <t>Cty TNHH American Home Việt Nam</t>
+  </si>
+  <si>
+    <t>Phơờng Tân Đông Hiệp, TX Dĩ An, Tỉnh BD, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0902448818</t>
+  </si>
+  <si>
+    <t>210408fa667cc062</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-616</t>
+  </si>
+  <si>
+    <t>210408b101efa6d1</t>
+  </si>
+  <si>
+    <t>2104084748ce3360</t>
+  </si>
+  <si>
+    <t>210408e0efcd5110</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9969</t>
+  </si>
+  <si>
+    <t>210408db984e5bcc</t>
+  </si>
+  <si>
+    <t>2104080fe21b0ed3</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ 1 hồng ngoại CA-9999</t>
+  </si>
+  <si>
+    <t>210408bc64d76358</t>
+  </si>
+  <si>
+    <t>2104084c57f3c10b</t>
+  </si>
+  <si>
+    <t>2104080c891a54dc</t>
+  </si>
+  <si>
+    <t>210408e6eebeb29d</t>
+  </si>
+  <si>
+    <t>Máy hút khói âm tủ Canaval CA-8700T</t>
+  </si>
+  <si>
+    <t>2104080c1138a94a</t>
+  </si>
+  <si>
+    <t>210408800e2ef58d</t>
+  </si>
+  <si>
+    <t>Máy hút khói kính cong cảm ứng CV-3670S</t>
+  </si>
+  <si>
+    <t>2104087cd5dfe96b</t>
+  </si>
+  <si>
+    <t>2104089aac590409</t>
+  </si>
+  <si>
+    <t>Công ty TNHH nội thất Đồng Xoài</t>
+  </si>
+  <si>
+    <t>36/266 QL14, P. Tân Đồng, TP Đ. Xoài, BP, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0962.672.742 (HuÕ)</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8770S</t>
+  </si>
+  <si>
+    <t>210408acf80eb857</t>
+  </si>
+  <si>
+    <t>21040845161674c1</t>
+  </si>
+  <si>
+    <t>210408cfea82cafb</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700B</t>
+  </si>
+  <si>
+    <t>2104084fa4a50d19</t>
+  </si>
+  <si>
+    <t>210408948d6fc44b</t>
+  </si>
+  <si>
+    <t>210408bf2cc70ee5</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700A</t>
+  </si>
+  <si>
+    <t>210408cc33f331bb</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-3388A</t>
+  </si>
+  <si>
+    <t>210408bbca682943</t>
+  </si>
+  <si>
+    <t>210408ea2d63a9fe</t>
+  </si>
+  <si>
+    <t>21040875bd571165</t>
+  </si>
+  <si>
+    <t>Tủ Bếp Nhựa T.V.Mười</t>
+  </si>
+  <si>
+    <t>2/5B Trần Văn Mơời, Hóc Môn, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0979.501.300</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9939</t>
+  </si>
+  <si>
+    <t>21040807ba506f16</t>
+  </si>
+  <si>
+    <t>Nt Tú Nguyễn Bình Dương</t>
+  </si>
+  <si>
+    <t>70 Đông Minh, Đông Hòa, Dĩ An, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0972674740</t>
+  </si>
+  <si>
+    <t>13-07-2022</t>
+  </si>
+  <si>
+    <t>2104087569ba8aa7</t>
+  </si>
+  <si>
+    <t>Sơn S8 Hóc Môn</t>
+  </si>
+  <si>
+    <t>, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>210408459d5d2328</t>
+  </si>
+  <si>
+    <t>NT Xinh</t>
+  </si>
+  <si>
+    <t>50 Thống Nhất, TT.Liên Nghĩa, Huyện Đức Trọng, Lâm Đồng</t>
+  </si>
+  <si>
+    <t>0918.348.182</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại CA-9929</t>
+  </si>
+  <si>
+    <t>210408c96d9cd1db</t>
+  </si>
+  <si>
+    <t>Phụ Kiện Thiên Phú Củ Chi</t>
+  </si>
+  <si>
+    <t>103 Hà Duy Phiên, ấp 5, Xã Bình Mỹ, H. Củ Chi, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0907.629.459</t>
+  </si>
+  <si>
+    <t>2104087a84ac83c4</t>
+  </si>
+  <si>
+    <t>21040844f3b37132</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8970S</t>
+  </si>
+  <si>
+    <t>210408a81dc2fd68</t>
+  </si>
+  <si>
+    <t>Tùng Mai CERAMICS</t>
+  </si>
+  <si>
+    <t>1146 PHẠM VĂN ĐỒNG, P LINH ĐÔNG, TP THỦ ĐỨC, Thủ Đức, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>'0903639945</t>
+  </si>
+  <si>
+    <t>12-07-2022</t>
+  </si>
+  <si>
+    <t>210408bf519d5998</t>
+  </si>
+  <si>
+    <t>Công Ty Thịnh ĐẠi Phúc</t>
+  </si>
+  <si>
+    <t>38 tổ 15 KP 3 P. Trảng Dài TP Biên Hòa Đồng Nai, Thành phố Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0949339779</t>
+  </si>
+  <si>
+    <t>2104083755a601c3</t>
+  </si>
+  <si>
+    <t>CTY TNHH Lộc Toàn Phát</t>
+  </si>
+  <si>
+    <t>913/15/15 Hà Huy Giáp , P.Thạnh Xuân, Quận 12, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0913.711.825</t>
+  </si>
+  <si>
+    <t>2104085409c2eb61</t>
+  </si>
+  <si>
+    <t>Đèn Cường Phát Củ Chi</t>
+  </si>
+  <si>
+    <t>, Củ Chi, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0779.724.904</t>
+  </si>
+  <si>
+    <t>21040858c1560a9a</t>
+  </si>
+  <si>
+    <t>VLXD Hùng Phát Đồng Nai</t>
+  </si>
+  <si>
+    <t>Ấp Cây Điêu, H.Bàu Hàm, Huyện Trảng Bom, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0382539799</t>
+  </si>
+  <si>
+    <t>2104080446977e99</t>
+  </si>
+  <si>
+    <t>Cửa hàng TTNT Dũng Mạnh</t>
+  </si>
+  <si>
+    <t>Đơờng Đồng Khởi , Trảng Dài, Biên Hòa, Đồng Nai, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0396461674</t>
+  </si>
+  <si>
+    <t>210408d544eb9059</t>
+  </si>
+  <si>
+    <t>21040831e307714c</t>
+  </si>
+  <si>
+    <t>210408fddcaabf20</t>
+  </si>
+  <si>
+    <t>210408e6349f31cc</t>
+  </si>
+  <si>
+    <t>2104085976b13330</t>
+  </si>
+  <si>
+    <t>VLXD Hưng Bình Tân Uyên</t>
+  </si>
+  <si>
+    <t>0988344733</t>
+  </si>
+  <si>
+    <t>21040817062efb36</t>
+  </si>
+  <si>
+    <t>Máy hút khói CIVIN CV-Smart</t>
+  </si>
+  <si>
+    <t>2104088163aa7a12</t>
+  </si>
+  <si>
+    <t>Vinh Cty</t>
+  </si>
+  <si>
+    <t>, Hóc Môn, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>2104080bb0be7971</t>
+  </si>
+  <si>
+    <t>Vlxd Đức tài Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phố Xà Ngách, Thị trấn Lương Kiên, huyện Lương Kiên Tỉnh Kiên Giang, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>'0963491649</t>
+  </si>
+  <si>
+    <t>Bếp âm Canaval CA-6818</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>210326c2151d6f4a</t>
+  </si>
+  <si>
+    <t>CTY Xây Dựng Thành Tâm</t>
+  </si>
+  <si>
+    <t>163C BÙI THỊ XUÂN, P1, TP BẢO LỘC, T LÂM ĐỒNG, Thành phố Bảo Lộc, Lâm Đồng</t>
+  </si>
+  <si>
+    <t>'0387654387</t>
+  </si>
+  <si>
+    <t>210326b35c078ed6</t>
+  </si>
+  <si>
+    <t>XD VPT Group</t>
+  </si>
+  <si>
+    <t>, Thành phố Phan Thiết, Bình Thuận</t>
+  </si>
+  <si>
+    <t>0981200069</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8290</t>
+  </si>
+  <si>
+    <t>210408218dd17592</t>
+  </si>
+  <si>
+    <t>Năng Lượng Huy Phát</t>
+  </si>
+  <si>
+    <t>, Thị xã Bà Rịa, Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>0977.774.739</t>
+  </si>
+  <si>
+    <t>2104085c9c2528ff</t>
+  </si>
+  <si>
+    <t>Vlxd Phương Đông Long An</t>
+  </si>
+  <si>
+    <t>0973450813</t>
+  </si>
+  <si>
+    <t>2104082e925f138a</t>
+  </si>
+  <si>
+    <t>Anh Bột</t>
+  </si>
+  <si>
+    <t>51/3c  ấp Mỹ Hòa xã trung chánh   Tên  kh hàng  bột , Hóc Môn, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>210408236700ba5e</t>
+  </si>
+  <si>
+    <t>NT Hố Nai</t>
+  </si>
+  <si>
+    <t>2/22 KP8 , P.Long Bình, Thành phố Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0934357579</t>
+  </si>
+  <si>
+    <t>210408567e49f13f</t>
+  </si>
+  <si>
+    <t>Cộng tác viên Thanh Việt úc</t>
+  </si>
+  <si>
+    <t>109 Đặng Thúc Vịnh, Hóc Môn, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0902.631.456</t>
+  </si>
+  <si>
+    <t>2104087286a93c68</t>
+  </si>
+  <si>
+    <t>Showroom Phú Mỹ (Ong Biển Sài Gòn)</t>
+  </si>
+  <si>
+    <t>Tổ 13, KP Bến Đình, Mỹ Xuân, Phú Mỹ, BR-VT, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0971.333.645</t>
+  </si>
+  <si>
+    <t>2104084db3ee91c6</t>
+  </si>
+  <si>
+    <t>CTY TNHH MTV Sơn Lộc Phát</t>
+  </si>
+  <si>
+    <t>50 Nguyễn Tất Thành, Xã Lý Văn Lâm, Thành phố Cà Mau, Cà Mau</t>
+  </si>
+  <si>
+    <t>0918077207</t>
+  </si>
+  <si>
+    <t>210408f9e728abb0</t>
+  </si>
+  <si>
+    <t>VLXD Bắc</t>
+  </si>
+  <si>
+    <t>Quốc lộ 1A, Xã Suối Cát, Huyện Xuân Lộc, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0942287768-091602364</t>
+  </si>
+  <si>
+    <t>Bếp âm Canaval CA-6838</t>
+  </si>
+  <si>
+    <t>21040875283b0bf5</t>
+  </si>
+  <si>
+    <t>21040898fd592f07</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8990S</t>
+  </si>
+  <si>
+    <t>21040878a4f8069b</t>
+  </si>
+  <si>
+    <t>NT Gia Đạt Long Thành</t>
+  </si>
+  <si>
+    <t>97 Tân Hiệp, Long Thành, Đồng Nai, Huyện Long Thành, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0937.867.575</t>
+  </si>
+  <si>
+    <t>09-07-2022</t>
+  </si>
+  <si>
+    <t>210326514fbd58be</t>
+  </si>
+  <si>
+    <t>DL Minh Đức</t>
+  </si>
+  <si>
+    <t>0918886344</t>
+  </si>
+  <si>
+    <t>210408ae98bc6576</t>
+  </si>
+  <si>
+    <t>Cửa hàng Nội Thất Sài Gòn</t>
+  </si>
+  <si>
+    <t>Đông Hải, tân Hải, Tân Thành, BR-VT, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0985.531.136</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-700T</t>
+  </si>
+  <si>
+    <t>2104081c5d6786b7</t>
+  </si>
+  <si>
+    <t>NPP Thảm Anh Hoàng</t>
+  </si>
+  <si>
+    <t>135 Phan Văn Hớn , P.Tân Thới Nhất , Quận 12, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0961527955</t>
+  </si>
+  <si>
+    <t>2104089ba75539b5</t>
+  </si>
+  <si>
+    <t>Hoa Đại Hùng Dũng Q12</t>
+  </si>
+  <si>
+    <t>210408ad2d8fb88e</t>
+  </si>
+  <si>
+    <t>210408e398bf5fe0</t>
   </si>
   <si>
     <t>Bếp điên từ hồng ngoại CIVIN CV-690</t>
   </si>
   <si>
-    <t>2103247e86ab21b2</t>
-  </si>
-  <si>
-    <t>Cửa hàng VLXD Cúc Nguyễn</t>
-  </si>
-  <si>
-    <t>Sông Xoài Làng Lớn Châu Đức Bà Rịa Vũng Tàu, Huyện Châu Đức, Bà Rịa - Vũng Tàu</t>
-  </si>
-  <si>
-    <t>0963730879</t>
-  </si>
-  <si>
-    <t>16-12-2021</t>
-  </si>
-  <si>
-    <t>21032418e5c13099</t>
-  </si>
-  <si>
-    <t>210324c5bb5403dc</t>
-  </si>
-  <si>
-    <t>2103247721c9facb</t>
-  </si>
-  <si>
-    <t>21032411b907bc59</t>
-  </si>
-  <si>
-    <t>21032449233600f1</t>
-  </si>
-  <si>
-    <t>12-04-2021</t>
-  </si>
-  <si>
-    <t>210324eb53cad3e7</t>
-  </si>
-  <si>
-    <t>Điện Máy Minh Phát</t>
-  </si>
-  <si>
-    <t>591 QL13, P HIỆP BÌNH PHƯỚC, THỦ ĐỨC, TPHCM, Thủ Đức, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0916123900</t>
-  </si>
-  <si>
-    <t>06-08-2021</t>
-  </si>
-  <si>
-    <t>2103246bdba59c07</t>
-  </si>
-  <si>
-    <t>CỬa HàngVLXD Minh Long BD</t>
-  </si>
-  <si>
-    <t>299C Ấp Tân Lập An Điền Bến Cát Bình Dương, Huyện Bàu Bàng, Bình Dương</t>
-  </si>
-  <si>
-    <t>0378866225</t>
-  </si>
-  <si>
-    <t>Máy hút khói CIVIN CV-8770G</t>
-  </si>
-  <si>
-    <t>29-06-2021</t>
-  </si>
-  <si>
-    <t>210324debcdf2929</t>
-  </si>
-  <si>
-    <t>Bếp âm Civina  CV-828</t>
-  </si>
-  <si>
-    <t>21-08-2021</t>
-  </si>
-  <si>
-    <t>210324d85666bc82</t>
-  </si>
-  <si>
-    <t>Cửa hàng Thanh Bình Nhơn Trạch (Huyền)</t>
-  </si>
-  <si>
-    <t>ấp Bình Phú, Xã Long Tân, Huyện Nhơn Trạch, ĐN, Gia Lâm, Hà Nội</t>
-  </si>
-  <si>
-    <t>0907.092.440</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>210326675b7c5b4e</t>
-  </si>
-  <si>
-    <t>Chị Liên Sang</t>
-  </si>
-  <si>
-    <t>, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0932082626</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 từ 1 hồng ngoại CA-9999</t>
-  </si>
-  <si>
-    <t>27-11-2021</t>
-  </si>
-  <si>
-    <t>21032671cfef7c6e</t>
-  </si>
-  <si>
-    <t>NT Mộc Gia Khánh</t>
-  </si>
-  <si>
-    <t>87/5 KP 4 P. Tân Định Bến Cát Bình Dương, Thị xã Bến Cát, Bình Dương</t>
-  </si>
-  <si>
-    <t>0357551446</t>
-  </si>
-  <si>
-    <t>02-10-2021</t>
-  </si>
-  <si>
-    <t>210326d869f1564a</t>
-  </si>
-  <si>
-    <t>CỬa Hàng Nội thất Hải Thảo</t>
-  </si>
-  <si>
-    <t>532/7/3 đường 21/8 Tp Phan Rang Tháp Chàm Nình Thuận, Thành phố Phan Rang-Tháp Chàm, Ninh Thuận</t>
-  </si>
-  <si>
-    <t>0919854019</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 hồng ngoại EI-8262</t>
-  </si>
-  <si>
-    <t>26-06-2021</t>
-  </si>
-  <si>
-    <t>210326022ade3c6e</t>
-  </si>
-  <si>
-    <t>CHị Yến Thanh</t>
-  </si>
-  <si>
-    <t>78/1 Hẻm 244 Lê Văn Khương p. Thới An q12, Quận 12, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0932081638</t>
-  </si>
-  <si>
-    <t>Bếp âm Canaval CA-6838</t>
-  </si>
-  <si>
-    <t>24-06-2021</t>
-  </si>
-  <si>
-    <t>2103269716105a23</t>
-  </si>
-  <si>
-    <t>Cửa hàng nội thất Phúc An</t>
-  </si>
-  <si>
-    <t>A5.18 Khu đô thị Phúc An, ấp mới 2, Mỹ Hạnh Nam, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0933.547.568</t>
-  </si>
-  <si>
-    <t>Bếp điện 1 từ 1 hồng ngoại EI-6215</t>
-  </si>
-  <si>
-    <t>07-07-2021</t>
-  </si>
-  <si>
-    <t>210326366ec2510b</t>
-  </si>
-  <si>
-    <t>Hút khói  Civina CV-700B</t>
-  </si>
-  <si>
-    <t>2103267c91b48606</t>
-  </si>
-  <si>
-    <t>Anh Trung CTV</t>
-  </si>
-  <si>
-    <t>Q12, Quận 12, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0937262879</t>
-  </si>
-  <si>
-    <t>17-07-2021</t>
-  </si>
-  <si>
-    <t>21032679e5686e65</t>
-  </si>
-  <si>
-    <t>Cửa hàng Gia Thắng</t>
-  </si>
-  <si>
-    <t>179C Lê Hồng Phong, P. Trà An, Q. Bình Thủy, CT, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0901.000.847</t>
-  </si>
-  <si>
-    <t>13-07-2021</t>
-  </si>
-  <si>
-    <t>210326f4e2bdbcaa</t>
+    <t>08-07-2022</t>
+  </si>
+  <si>
+    <t>2104080464eb8bfc</t>
+  </si>
+  <si>
+    <t>Máy hút khói CIVIN CA-8270S</t>
+  </si>
+  <si>
+    <t>2104087f6ecb174a</t>
+  </si>
+  <si>
+    <t>VLXD Ngọc Vân 2</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Trí, TT.Tân Túc, Huyện Bình Chánh, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>02837600188</t>
+  </si>
+  <si>
+    <t>210408578363028e</t>
+  </si>
+  <si>
+    <t>Việt Hà Đồng Nai</t>
+  </si>
+  <si>
+    <t>Long Bình Biên Hòa Đồng Nai, Thành phố Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0989620602</t>
+  </si>
+  <si>
+    <t>210408f956a400df</t>
+  </si>
+  <si>
+    <t>2104085371e950ef</t>
+  </si>
+  <si>
+    <t>210408bd080eb524</t>
+  </si>
+  <si>
+    <t>2104085ddfdb3043</t>
+  </si>
+  <si>
+    <t>Cửa hàng VLXD Đại Trường Thành</t>
+  </si>
+  <si>
+    <t>375 Tô Hiến Thành, P.14, Q.10, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0933336748</t>
+  </si>
+  <si>
+    <t>210408618b1b0290</t>
+  </si>
+  <si>
+    <t>21040803a63124bc</t>
+  </si>
+  <si>
+    <t>21040858e501d82c</t>
+  </si>
+  <si>
+    <t>210408dfef777fab</t>
+  </si>
+  <si>
+    <t>210408f9ce292ea3</t>
+  </si>
+  <si>
+    <t>2104081c9120987f</t>
+  </si>
+  <si>
+    <t>NT Hương Mộc Decco</t>
+  </si>
+  <si>
+    <t>67, Đường 297, P.Phước Long, Quận 9, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0901462539</t>
+  </si>
+  <si>
+    <t>2104080702865dfb</t>
+  </si>
+  <si>
+    <t>Bếp âm Civina CV-868</t>
+  </si>
+  <si>
+    <t>210408b4c64c98e1</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-665</t>
+  </si>
+  <si>
+    <t>2104082c7a59dd84</t>
+  </si>
+  <si>
+    <t>2104087da05c292e</t>
+  </si>
+  <si>
+    <t>21040881125cfbeb</t>
+  </si>
+  <si>
+    <t>21040829c48b5d53</t>
+  </si>
+  <si>
+    <t>2104080a2549919a</t>
+  </si>
+  <si>
+    <t>21040832435f027f</t>
+  </si>
+  <si>
+    <t>210408d0f2b4ef0d</t>
+  </si>
+  <si>
+    <t>21040885a2d0a372</t>
+  </si>
+  <si>
+    <t>210408e96d043452</t>
+  </si>
+  <si>
+    <t>21040815745cadde</t>
+  </si>
+  <si>
+    <t>TRỊNH HỮU CHIẾN</t>
+  </si>
+  <si>
+    <t>202/4  ấp 4, xã phú hoà, Huyện Châu Thành, Long An</t>
+  </si>
+  <si>
+    <t>0946.499.192</t>
+  </si>
+  <si>
+    <t>07-07-2022</t>
+  </si>
+  <si>
+    <t>2103260b34caf45c</t>
+  </si>
+  <si>
+    <t>NT Xinh Decor</t>
+  </si>
+  <si>
+    <t>131 Trương Công Định, Thành phố Vũng Tàu, Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>0908345710</t>
+  </si>
+  <si>
+    <t>210408ed6399b387</t>
+  </si>
+  <si>
+    <t>210408345733827c</t>
+  </si>
+  <si>
+    <t>VLXD Tân Tiến</t>
+  </si>
+  <si>
+    <t>56 Tổ 2, Thọ Lâm 1, Phú Thành, Huyện Tân Phú, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0933183778</t>
+  </si>
+  <si>
+    <t>2104085b0b391953</t>
+  </si>
+  <si>
+    <t>210408b857969ced</t>
+  </si>
+  <si>
+    <t>Cửa hàng Vạn Sự Hơng</t>
+  </si>
+  <si>
+    <t>229A QL2, ấp Trung, Xã Tân Thông Hội, Củ Chi, TP, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0973.995.973</t>
+  </si>
+  <si>
+    <t>21040865eec73d10</t>
+  </si>
+  <si>
+    <t>2104085e9fe233ca</t>
+  </si>
+  <si>
+    <t>VLXD THIÊN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>0901383435</t>
+  </si>
+  <si>
+    <t>06-07-2022</t>
+  </si>
+  <si>
+    <t>2103269cfe0806af</t>
+  </si>
+  <si>
+    <t>ANH HIỂN THỦ ĐỨC</t>
+  </si>
+  <si>
+    <t>Thủ Đức, Thủ Đức, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>2104082907ffa973</t>
+  </si>
+  <si>
+    <t>Cửa hàng Thanh Ngân Tô Ký</t>
+  </si>
+  <si>
+    <t>475 Tô Ký, Quận 12, TP.HCM, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0902306046</t>
+  </si>
+  <si>
+    <t>210408ff064a1111</t>
+  </si>
+  <si>
+    <t>210408b0a9cf067b</t>
+  </si>
+  <si>
+    <t>A Cường Bình Minh Biên Hòa</t>
+  </si>
+  <si>
+    <t>G47 Đơờng Bùi Văn Hòa, Tổ 18, KP7,Long Bình Tân, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0919.789.191</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8790S</t>
+  </si>
+  <si>
+    <t>21040805b9badde9</t>
+  </si>
+  <si>
+    <t>21040835cf3675dd</t>
   </si>
   <si>
     <t>Chinh Gold Max</t>
@@ -323,502 +950,202 @@
     <t>, Thị xã Dĩ An, Bình Dương</t>
   </si>
   <si>
-    <t>Hút khói  Canaval CA-8770S</t>
-  </si>
-  <si>
-    <t>21-01-2022</t>
-  </si>
-  <si>
-    <t>21032636fb16fbea</t>
-  </si>
-  <si>
-    <t>Cửa hàng VLXD Phú Khang</t>
-  </si>
-  <si>
-    <t>14 Dơơng Thị Mơời, P.Tân Chánh Hiệp, Q.12, HCM, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0938.288.717</t>
+    <t>21040853de8b1acd</t>
+  </si>
+  <si>
+    <t>NT Phạm Hoàng</t>
+  </si>
+  <si>
+    <t>thạnh lộc 12 thạnh lộc q12., Quận 12, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0337739200</t>
+  </si>
+  <si>
+    <t>05-07-2022</t>
+  </si>
+  <si>
+    <t>21040814b92a4970</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8700S</t>
+  </si>
+  <si>
+    <t>210408c397f8678c</t>
+  </si>
+  <si>
+    <t>210408e79389394e</t>
+  </si>
+  <si>
+    <t>2104082e97dca0fe</t>
+  </si>
+  <si>
+    <t>CTY TNHH Kiến Nhất Nam</t>
+  </si>
+  <si>
+    <t>216 Nguyễn Phúc Chu, kp5, Trảng Dài, Biên Hoà, Thành phố Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>096 7074379</t>
+  </si>
+  <si>
+    <t>210408d7f1f6ebf0</t>
+  </si>
+  <si>
+    <t>210408f2420fef8d</t>
+  </si>
+  <si>
+    <t>Nhàn NT Mộc Đức</t>
+  </si>
+  <si>
+    <t>21040886a73a389e</t>
+  </si>
+  <si>
+    <t>210408d6b238683e</t>
+  </si>
+  <si>
+    <t>Mộc Hương Phan Rang</t>
+  </si>
+  <si>
+    <t>0888799959</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700D</t>
+  </si>
+  <si>
+    <t>21040861c50be6b1</t>
+  </si>
+  <si>
+    <t>Showroom Phú Đại Phát</t>
+  </si>
+  <si>
+    <t>DT 742,KP4, P.Vĩnh Tân, Thị xã Tân Uyên, Bình Dương</t>
+  </si>
+  <si>
+    <t>0919322378</t>
+  </si>
+  <si>
+    <t>04-07-2022</t>
+  </si>
+  <si>
+    <t>210326b0d17a9310</t>
+  </si>
+  <si>
+    <t>2104088b557330f7</t>
+  </si>
+  <si>
+    <t>210408a3b7986e09</t>
+  </si>
+  <si>
+    <t>2104086cae50b91b</t>
+  </si>
+  <si>
+    <t>Cửa Hàng VLXD Thiện Phát</t>
+  </si>
+  <si>
+    <t>Ấp liên Sơn Xã Xà Bàng H, Châu Đức BRVT, Huyện Châu Đức, Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>0985.472.772</t>
+  </si>
+  <si>
+    <t>21040863b9dfc6d9</t>
+  </si>
+  <si>
+    <t>A Thi - NT Mộc Việt Bình Dương</t>
+  </si>
+  <si>
+    <t>P. Định Hòa, Tp Thủ Dầu 1, Bình Dương, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>'0975535232</t>
+  </si>
+  <si>
+    <t>2104081f20cf9310</t>
+  </si>
+  <si>
+    <t>NT Vân Khoa Long Thành</t>
+  </si>
+  <si>
+    <t>ĐT769, Lộc An, Long Thành, Đồng Nai, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>'0938766090</t>
+  </si>
+  <si>
+    <t>210408abfcf29c3e</t>
+  </si>
+  <si>
+    <t>2104086ace549328</t>
+  </si>
+  <si>
+    <t>210408b883f55ebd</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-3388C</t>
+  </si>
+  <si>
+    <t>21040857016fd29e</t>
+  </si>
+  <si>
+    <t>21040808897b7cdd</t>
+  </si>
+  <si>
+    <t>21040851895ce4a0</t>
+  </si>
+  <si>
+    <t>2104089d251fd452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTNT Thành Cường </t>
+  </si>
+  <si>
+    <t>, Huyện Cao Lãnh, Đồng Tháp</t>
+  </si>
+  <si>
+    <t>0901587070</t>
   </si>
   <si>
     <t>Bếp âm Canaval CA-6828</t>
   </si>
   <si>
-    <t>12-06-2021</t>
-  </si>
-  <si>
-    <t>21032622feacb922</t>
-  </si>
-  <si>
-    <t>210326e612b88f8f</t>
-  </si>
-  <si>
-    <t>Cửa Hàng VLXD Nam Dương</t>
-  </si>
-  <si>
-    <t>Ấp Bình Chuẩn TT Thuận An tỉnh Bình Dương, Thị xã Thuận An, Bình Dương</t>
-  </si>
-  <si>
-    <t>0907370001</t>
-  </si>
-  <si>
-    <t>Hút khói  Civina CV-700D</t>
-  </si>
-  <si>
-    <t>08-06-2021</t>
-  </si>
-  <si>
-    <t>21032690fe41f30f</t>
-  </si>
-  <si>
-    <t>CTY KIM THÀNH PHÁT</t>
-  </si>
-  <si>
-    <t>, Phú Nhuận, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0919401840</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 từ CV-879</t>
-  </si>
-  <si>
-    <t>24-11-2021</t>
-  </si>
-  <si>
-    <t>210326ef0a782414</t>
-  </si>
-  <si>
-    <t>, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Hút khói Civina CV-700T</t>
-  </si>
-  <si>
-    <t>210326866d84fd4f</t>
-  </si>
-  <si>
-    <t>Nội Thất Hoàng Gia Anh - Chị Cúc</t>
-  </si>
-  <si>
-    <t>Cuối hẻm 47/12 Bình Thành P. Bình Hưng Hòa B, Q. Bình Tân, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0938045381</t>
-  </si>
-  <si>
-    <t>04-06-2021</t>
-  </si>
-  <si>
-    <t>2103262acfd4b2f0</t>
-  </si>
-  <si>
-    <t>Nội thất Thành Công</t>
-  </si>
-  <si>
-    <t>, Gia Lâm, Hà Nội</t>
-  </si>
-  <si>
-    <t>0909125150</t>
-  </si>
-  <si>
-    <t>21032639cb8ab28f</t>
-  </si>
-  <si>
-    <t>Công ty Merry Home</t>
-  </si>
-  <si>
-    <t>97 Phạm Thị Giây, Thới Tam Thôn, Hóc Môn, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0934.041.719</t>
-  </si>
-  <si>
-    <t>28-06-2021</t>
-  </si>
-  <si>
-    <t>210326064e233df5</t>
-  </si>
-  <si>
-    <t>Công ty TNHH nội thất SWOODS</t>
-  </si>
-  <si>
-    <t>QL13, ấp Lai Khê, Xã Lai Hơng, Bàu Bàng B. Dơơng, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0975.535.232</t>
-  </si>
-  <si>
-    <t>Hút khói Canaval CA-8670G</t>
-  </si>
-  <si>
-    <t>21032675f99e4f35</t>
-  </si>
-  <si>
-    <t>Công ty TNHH nội thất Đồng Xoài</t>
-  </si>
-  <si>
-    <t>36/266 QL14, P. Tân Đồng, TP Đ. Xoài, BP, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0962.672.742 (HuÕ)</t>
-  </si>
-  <si>
-    <t>10-06-2021</t>
-  </si>
-  <si>
-    <t>2103263c4d302523</t>
-  </si>
-  <si>
-    <t>Cửa hàng Vạn Sự Hơng</t>
-  </si>
-  <si>
-    <t>229A QL2, ấp Trung, Xã Tân Thông Hội, Củ Chi, TP, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0973.995.973</t>
-  </si>
-  <si>
-    <t>11-10-2021</t>
-  </si>
-  <si>
-    <t>2103267913f0902b</t>
-  </si>
-  <si>
-    <t>Bếp điện 1 từ 1 hồng ngoại EI-6206</t>
-  </si>
-  <si>
-    <t>2103263d7fd519c7</t>
-  </si>
-  <si>
-    <t>Showroom Phú Mỹ (Ong Biển Sài Gòn)</t>
-  </si>
-  <si>
-    <t>Tổ 13, KP Bến Đình, Mỹ Xuân, Phú Mỹ, BR-VT, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0971.333.645</t>
-  </si>
-  <si>
-    <t>Hút khói Canaval CA-8970S</t>
-  </si>
-  <si>
-    <t>28-07-2021</t>
-  </si>
-  <si>
-    <t>210408d5c1930f81</t>
-  </si>
-  <si>
-    <t>Chị Quỳnh</t>
-  </si>
-  <si>
-    <t>206/1A Lê Văn Quới P. Bình Hưng Hòa A Q. Bình Tân, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0967.438.787</t>
-  </si>
-  <si>
-    <t>Hút khói Canaval CA-8700G</t>
-  </si>
-  <si>
-    <t>21040802517c67a8</t>
-  </si>
-  <si>
-    <t>21040807009e12e7</t>
-  </si>
-  <si>
-    <t>01-11-2021</t>
-  </si>
-  <si>
-    <t>210408b668370d7b</t>
-  </si>
-  <si>
-    <t>Đặng Ngọc Viên</t>
-  </si>
-  <si>
-    <t>6 xã xuân hồng, huyện xuân trường, Nam Định, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0855125430</t>
-  </si>
-  <si>
-    <t>09-11-2021</t>
-  </si>
-  <si>
-    <t>210408048996b1ae</t>
-  </si>
-  <si>
-    <t>Công ty TNHH Nội thất CVG</t>
-  </si>
-  <si>
-    <t>Lô K1.19, KDC Vĩnh Phú 2, Đơờng Vĩnh Phú 41, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0973762141 (Giang)</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 từ CV-616</t>
-  </si>
-  <si>
-    <t>05-06-2021</t>
-  </si>
-  <si>
-    <t>21040854573cd1a7</t>
-  </si>
-  <si>
-    <t>Hút khói Civina CV-3388A</t>
-  </si>
-  <si>
-    <t>21040855162bb385</t>
-  </si>
-  <si>
-    <t>22-06-2021</t>
-  </si>
-  <si>
-    <t>21040831a7913e1c</t>
-  </si>
-  <si>
-    <t>Sàn giao dịch Tiki</t>
-  </si>
-  <si>
-    <t>Lô A85-Â/1, Đơờng số 5, KCN Vình Lộc, Xã Bà Điểm, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Bếp âm Canaval CA-6888</t>
-  </si>
-  <si>
-    <t>13-06-2022</t>
-  </si>
-  <si>
-    <t>210408f9eb51947f</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>2104088c211b16f2</t>
-  </si>
-  <si>
-    <t>Cửa hàng VLXD Trường Thuận</t>
-  </si>
-  <si>
-    <t>, Huyện Long Thành, Đồng Nai</t>
-  </si>
-  <si>
-    <t>0797476323</t>
-  </si>
-  <si>
-    <t>Máy hút khói CANAVAL CA-790G</t>
-  </si>
-  <si>
-    <t>25-06-2021</t>
-  </si>
-  <si>
-    <t>2104089010cc5249</t>
-  </si>
-  <si>
-    <t>Cửa hàng nội thất Khánh Nguyên</t>
-  </si>
-  <si>
-    <t>320-322 Đơờng số 5, KDC Hồng Phát, P.An Bình, NK, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0901.079.507</t>
-  </si>
-  <si>
-    <t>Hút khói Canaval CA-8700S</t>
-  </si>
-  <si>
-    <t>05-10-2021</t>
-  </si>
-  <si>
-    <t>210408caefc71162</t>
-  </si>
-  <si>
-    <t>Vlxd Công Minh Bà Rịa</t>
-  </si>
-  <si>
-    <t>, Thị xã Bà Rịa, Bà Rịa - Vũng Tàu</t>
-  </si>
-  <si>
-    <t>08-10-2021</t>
-  </si>
-  <si>
-    <t>2104083a139fbc90</t>
-  </si>
-  <si>
-    <t>Cửa hàng Thanh Ngân Tô Ký</t>
-  </si>
-  <si>
-    <t>475 Tô Ký, Quận 12, TP.HCM, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0902306046</t>
-  </si>
-  <si>
-    <t>Hút khói Canaval CA-8890S</t>
-  </si>
-  <si>
-    <t>09-05-2022</t>
-  </si>
-  <si>
-    <t>21040801ab55b484</t>
-  </si>
-  <si>
-    <t>17-09-2021</t>
-  </si>
-  <si>
-    <t>2104086cf53fb074</t>
-  </si>
-  <si>
-    <t>Điện Máy nội thất Năm Văn</t>
-  </si>
-  <si>
-    <t>Sơn Trung Đức Hạnh Bù Gia Mập Bình Phước, Huyện Bù Gia Mập, Bình Phước</t>
-  </si>
-  <si>
-    <t>0967755853</t>
-  </si>
-  <si>
-    <t>20-09-2021</t>
-  </si>
-  <si>
-    <t>2104089e8185d8db</t>
-  </si>
-  <si>
-    <t>17-01-2022</t>
-  </si>
-  <si>
-    <t>2104084463bd46b3</t>
-  </si>
-  <si>
-    <t>Tủ Bếp Nhựa T.V.Mười</t>
-  </si>
-  <si>
-    <t>2/5B Trần Văn Mơời, Hóc Môn, Bình Tân, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0979.501.300</t>
-  </si>
-  <si>
-    <t>Hút khói  Civina CV-700A</t>
-  </si>
-  <si>
-    <t>07-06-2021</t>
-  </si>
-  <si>
-    <t>210408e255ae29d0</t>
-  </si>
-  <si>
-    <t>Cửa hàng nội thất Quý Sơn Hà</t>
-  </si>
-  <si>
-    <t>Ngã 3 Nhơn Trạch 25B, Long An, Long Thành, ĐN, , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0948.436.779</t>
-  </si>
-  <si>
-    <t>Máy hút khói CIVIN CV-Smart</t>
-  </si>
-  <si>
-    <t>210408eb4ab3370e</t>
-  </si>
-  <si>
-    <t>2104080656412fd9</t>
-  </si>
-  <si>
-    <t>NT Hương Mộc Decco</t>
-  </si>
-  <si>
-    <t>67, Đường 297, P.Phước Long, Quận 9, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0901462539</t>
-  </si>
-  <si>
-    <t>Hút khói Civina CV-600T</t>
-  </si>
-  <si>
-    <t>17-03-2022</t>
-  </si>
-  <si>
-    <t>210408c0272e5200</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 từ CA-9989</t>
-  </si>
-  <si>
-    <t>27-03-2022</t>
-  </si>
-  <si>
-    <t>210408000707b649</t>
-  </si>
-  <si>
-    <t>Bếp điện 2 từ CA-9959</t>
-  </si>
-  <si>
-    <t>2104089f73ea1b1f</t>
-  </si>
-  <si>
-    <t>VLXD Anh Huy</t>
-  </si>
-  <si>
-    <t>, Thành phố Vũng Tàu, Bà Rịa - Vũng Tàu</t>
-  </si>
-  <si>
-    <t>0886254567</t>
-  </si>
-  <si>
-    <t>Bếp điện 1 từ 1 hồng ngoại CA-9929</t>
-  </si>
-  <si>
-    <t>10-06-2022</t>
-  </si>
-  <si>
-    <t>2104089fd6ec30c2</t>
-  </si>
-  <si>
-    <t>NT Duy Phát</t>
-  </si>
-  <si>
-    <t>622 Đinh Quang Ân, Phước Tân, Thành phố Biên Hòa, Đồng Nai</t>
-  </si>
-  <si>
-    <t>0933440139</t>
-  </si>
-  <si>
-    <t>25-06-2022</t>
-  </si>
-  <si>
-    <t>21040897fdc6350f</t>
+    <t>210408c5dd448974</t>
+  </si>
+  <si>
+    <t>Cửa hàng nội thất giá rẻ DDR</t>
+  </si>
+  <si>
+    <t>135 Thạnh Xuân 21, P. Thạnh Xuân, Q12, TP.HCM, , Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0942.016.464</t>
   </si>
   <si>
     <t>02-07-2022</t>
   </si>
   <si>
+    <t>21040808e2f88abd</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Kiên</t>
+  </si>
+  <si>
+    <t>218 Y Wang, Buôn Ma Thuộc, Đắk Lắk, Bình Tân, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0823475475</t>
+  </si>
+  <si>
+    <t>21040834b5401cc1</t>
+  </si>
+  <si>
+    <t>2104083d8e491e58</t>
+  </si>
+  <si>
+    <t>210408727c0c4b99</t>
+  </si>
+  <si>
     <t>2104089248f8bf77</t>
-  </si>
-  <si>
-    <t>14-07-2022</t>
-  </si>
-  <si>
-    <t>2104084fa4a50d19</t>
-  </si>
-  <si>
-    <t>NPP Thảm Anh Hoàng</t>
-  </si>
-  <si>
-    <t>135 Phan Văn Hớn , P.Tân Thới Nhất , Quận 12, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0961527955</t>
-  </si>
-  <si>
-    <t>08-07-2022</t>
-  </si>
-  <si>
-    <t>2104080a2549919a</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1481,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,9 +1491,9 @@
   <cols>
     <col min="1" max="1" width="4" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="45" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="113" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="107" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="47" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="28" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -1204,38 +1531,32 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1244,74 +1565,84 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4"/>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5"/>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6"/>
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7"/>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,20 +1650,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8"/>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1340,124 +1673,160 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>2103242201673833</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1465,22 +1834,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1488,41 +1857,45 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18"/>
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1530,22 +1903,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1553,22 +1926,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1576,22 +1949,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1599,22 +1972,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1622,22 +1995,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1645,22 +2018,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1668,22 +2041,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1691,22 +2064,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1714,22 +2087,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1737,20 +2110,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28"/>
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1758,41 +2133,45 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30"/>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1800,22 +2179,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1823,41 +2202,45 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
       <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33"/>
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1865,22 +2248,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1888,22 +2271,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1911,22 +2294,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1934,22 +2317,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1957,22 +2340,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1980,22 +2363,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2003,22 +2386,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2026,22 +2409,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2049,41 +2432,45 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
       <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43"/>
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2091,22 +2478,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2114,22 +2501,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2137,22 +2524,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2160,41 +2547,45 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
       <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48"/>
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2202,39 +2593,45 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49"/>
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
       <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50"/>
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2242,22 +2639,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2265,22 +2662,20 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" t="s">
-        <v>202</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D52"/>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2288,20 +2683,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53"/>
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
       <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
         <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2309,22 +2706,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="G54" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2332,22 +2729,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2355,22 +2752,20 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" t="s">
-        <v>220</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D56"/>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2378,22 +2773,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2401,22 +2796,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2424,22 +2819,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2447,22 +2842,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2470,41 +2865,45 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
       <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62"/>
+        <v>145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2512,22 +2911,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2535,22 +2934,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2558,22 +2957,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2581,22 +2980,20 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2604,22 +3001,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2627,22 +3024,2007 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>220</v>
+      </c>
+      <c r="F86" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" t="s">
+        <v>230</v>
+      </c>
+      <c r="G89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>230</v>
+      </c>
+      <c r="G91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
+        <v>70</v>
+      </c>
+      <c r="F94" t="s">
+        <v>230</v>
+      </c>
+      <c r="G94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" t="s">
+        <v>230</v>
+      </c>
+      <c r="G97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
+        <v>230</v>
+      </c>
+      <c r="G98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s">
+        <v>230</v>
+      </c>
+      <c r="G99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" t="s">
+        <v>230</v>
+      </c>
+      <c r="G101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" t="s">
+        <v>75</v>
+      </c>
+      <c r="F102" t="s">
+        <v>230</v>
+      </c>
+      <c r="G102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" t="s">
+        <v>258</v>
+      </c>
+      <c r="F103" t="s">
+        <v>230</v>
+      </c>
+      <c r="G103" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F104" t="s">
+        <v>230</v>
+      </c>
+      <c r="G104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" t="s">
+        <v>230</v>
+      </c>
+      <c r="G106" t="s">
         <v>263</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" t="s">
+        <v>230</v>
+      </c>
+      <c r="G107" t="s">
         <v>264</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" t="s">
+        <v>224</v>
+      </c>
+      <c r="E108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" t="s">
+        <v>230</v>
+      </c>
+      <c r="G108" t="s">
         <v>265</v>
       </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" t="s">
+        <v>230</v>
+      </c>
+      <c r="G109" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" t="s">
+        <v>230</v>
+      </c>
+      <c r="G110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" t="s">
         <v>88</v>
       </c>
-      <c r="F68" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" t="s">
-        <v>267</v>
+      <c r="F111" t="s">
+        <v>230</v>
+      </c>
+      <c r="G111" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" t="s">
+        <v>230</v>
+      </c>
+      <c r="G113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" t="s">
+        <v>274</v>
+      </c>
+      <c r="G114" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" t="s">
+        <v>274</v>
+      </c>
+      <c r="G115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" t="s">
+        <v>274</v>
+      </c>
+      <c r="G116" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" t="s">
+        <v>274</v>
+      </c>
+      <c r="G117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" t="s">
+        <v>283</v>
+      </c>
+      <c r="E118" t="s">
+        <v>260</v>
+      </c>
+      <c r="F118" t="s">
+        <v>274</v>
+      </c>
+      <c r="G118" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120" t="s">
+        <v>273</v>
+      </c>
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" t="s">
+        <v>274</v>
+      </c>
+      <c r="G120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" t="s">
+        <v>292</v>
+      </c>
+      <c r="E121" t="s">
+        <v>229</v>
+      </c>
+      <c r="F121" t="s">
+        <v>293</v>
+      </c>
+      <c r="G121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>293</v>
+      </c>
+      <c r="G122" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
+        <v>299</v>
+      </c>
+      <c r="D123" t="s">
+        <v>300</v>
+      </c>
+      <c r="E123" t="s">
+        <v>155</v>
+      </c>
+      <c r="F123" t="s">
+        <v>293</v>
+      </c>
+      <c r="G123" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" t="s">
+        <v>293</v>
+      </c>
+      <c r="G124" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" t="s">
+        <v>306</v>
+      </c>
+      <c r="F125" t="s">
+        <v>293</v>
+      </c>
+      <c r="G125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" t="s">
+        <v>296</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" t="s">
+        <v>293</v>
+      </c>
+      <c r="G126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" t="s">
+        <v>293</v>
+      </c>
+      <c r="G127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" t="s">
+        <v>313</v>
+      </c>
+      <c r="D128" t="s">
+        <v>314</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s">
+        <v>315</v>
+      </c>
+      <c r="G128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" t="s">
+        <v>317</v>
+      </c>
+      <c r="F129" t="s">
+        <v>315</v>
+      </c>
+      <c r="G129" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" t="s">
+        <v>314</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" t="s">
+        <v>315</v>
+      </c>
+      <c r="G130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" t="s">
+        <v>313</v>
+      </c>
+      <c r="D131" t="s">
+        <v>314</v>
+      </c>
+      <c r="E131" t="s">
+        <v>155</v>
+      </c>
+      <c r="F131" t="s">
+        <v>315</v>
+      </c>
+      <c r="G131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" t="s">
+        <v>315</v>
+      </c>
+      <c r="G132" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" t="s">
+        <v>315</v>
+      </c>
+      <c r="G133" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>326</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" t="s">
+        <v>315</v>
+      </c>
+      <c r="G134" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>321</v>
+      </c>
+      <c r="C135" t="s">
+        <v>322</v>
+      </c>
+      <c r="D135" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" t="s">
+        <v>315</v>
+      </c>
+      <c r="G135" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>329</v>
+      </c>
+      <c r="C136" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136" t="s">
+        <v>330</v>
+      </c>
+      <c r="E136" t="s">
+        <v>331</v>
+      </c>
+      <c r="F136" t="s">
+        <v>315</v>
+      </c>
+      <c r="G136" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" t="s">
+        <v>334</v>
+      </c>
+      <c r="D137" t="s">
+        <v>335</v>
+      </c>
+      <c r="E137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" t="s">
+        <v>336</v>
+      </c>
+      <c r="G137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" t="s">
+        <v>229</v>
+      </c>
+      <c r="F138" t="s">
+        <v>336</v>
+      </c>
+      <c r="G138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" t="s">
+        <v>334</v>
+      </c>
+      <c r="D139" t="s">
+        <v>335</v>
+      </c>
+      <c r="E139" t="s">
+        <v>40</v>
+      </c>
+      <c r="F139" t="s">
+        <v>336</v>
+      </c>
+      <c r="G139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" t="s">
+        <v>335</v>
+      </c>
+      <c r="E140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" t="s">
+        <v>336</v>
+      </c>
+      <c r="G140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" t="s">
+        <v>342</v>
+      </c>
+      <c r="D141" t="s">
+        <v>343</v>
+      </c>
+      <c r="E141" t="s">
+        <v>317</v>
+      </c>
+      <c r="F141" t="s">
+        <v>336</v>
+      </c>
+      <c r="G141" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>345</v>
+      </c>
+      <c r="C142" t="s">
+        <v>346</v>
+      </c>
+      <c r="D142" t="s">
+        <v>347</v>
+      </c>
+      <c r="E142" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142" t="s">
+        <v>336</v>
+      </c>
+      <c r="G142" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" t="s">
+        <v>350</v>
+      </c>
+      <c r="D143" t="s">
+        <v>351</v>
+      </c>
+      <c r="E143" t="s">
+        <v>331</v>
+      </c>
+      <c r="F143" t="s">
+        <v>336</v>
+      </c>
+      <c r="G143" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" t="s">
+        <v>350</v>
+      </c>
+      <c r="D144" t="s">
+        <v>351</v>
+      </c>
+      <c r="E144" t="s">
+        <v>331</v>
+      </c>
+      <c r="F144" t="s">
+        <v>336</v>
+      </c>
+      <c r="G144" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" t="s">
+        <v>334</v>
+      </c>
+      <c r="D145" t="s">
+        <v>335</v>
+      </c>
+      <c r="E145" t="s">
+        <v>92</v>
+      </c>
+      <c r="F145" t="s">
+        <v>336</v>
+      </c>
+      <c r="G145" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>333</v>
+      </c>
+      <c r="C146" t="s">
+        <v>334</v>
+      </c>
+      <c r="D146" t="s">
+        <v>335</v>
+      </c>
+      <c r="E146" t="s">
+        <v>355</v>
+      </c>
+      <c r="F146" t="s">
+        <v>336</v>
+      </c>
+      <c r="G146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" t="s">
+        <v>334</v>
+      </c>
+      <c r="D147" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" t="s">
+        <v>355</v>
+      </c>
+      <c r="F147" t="s">
+        <v>336</v>
+      </c>
+      <c r="G147" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148" t="s">
+        <v>335</v>
+      </c>
+      <c r="E148" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" t="s">
+        <v>336</v>
+      </c>
+      <c r="G148" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" t="s">
+        <v>347</v>
+      </c>
+      <c r="E149" t="s">
+        <v>260</v>
+      </c>
+      <c r="F149" t="s">
+        <v>336</v>
+      </c>
+      <c r="G149" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>360</v>
+      </c>
+      <c r="C150" t="s">
+        <v>361</v>
+      </c>
+      <c r="D150" t="s">
+        <v>362</v>
+      </c>
+      <c r="E150" t="s">
+        <v>363</v>
+      </c>
+      <c r="F150" t="s">
+        <v>336</v>
+      </c>
+      <c r="G150" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" t="s">
+        <v>366</v>
+      </c>
+      <c r="D151" t="s">
+        <v>367</v>
+      </c>
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151" t="s">
+        <v>368</v>
+      </c>
+      <c r="G151" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>370</v>
+      </c>
+      <c r="C152" t="s">
+        <v>371</v>
+      </c>
+      <c r="D152" t="s">
+        <v>372</v>
+      </c>
+      <c r="E152" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152" t="s">
+        <v>368</v>
+      </c>
+      <c r="G152" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>226</v>
+      </c>
+      <c r="C153" t="s">
+        <v>109</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="s">
+        <v>75</v>
+      </c>
+      <c r="F153" t="s">
+        <v>368</v>
+      </c>
+      <c r="G153" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>370</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>372</v>
+      </c>
+      <c r="E154" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" t="s">
+        <v>368</v>
+      </c>
+      <c r="G154" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" t="s">
+        <v>83</v>
+      </c>
+      <c r="E155" t="s">
+        <v>363</v>
+      </c>
+      <c r="F155" t="s">
+        <v>368</v>
+      </c>
+      <c r="G155" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
